--- a/po_analysis_by_asin/B09886GDFD_po_data.xlsx
+++ b/po_analysis_by_asin/B09886GDFD_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,23 +583,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +654,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>230</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09886GDFD_po_data.xlsx
+++ b/po_analysis_by_asin/B09886GDFD_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -655,6 +656,397 @@
       </c>
       <c r="B6" t="n">
         <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.53915838484487</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.6161286935401</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.15340699463327</v>
+      </c>
+      <c r="D3" t="n">
+        <v>126.1263590624558</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.69650391419025</v>
+      </c>
+      <c r="D4" t="n">
+        <v>121.5921010968618</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>67</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.86204936539071</v>
+      </c>
+      <c r="D5" t="n">
+        <v>118.2570661350112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.54290183543577</v>
+      </c>
+      <c r="D6" t="n">
+        <v>117.0573709841987</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>54</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.3029472457527591</v>
+      </c>
+      <c r="D7" t="n">
+        <v>110.2565685592869</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>52</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.242065527296114</v>
+      </c>
+      <c r="D8" t="n">
+        <v>106.3178573921102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.925939242430101</v>
+      </c>
+      <c r="D9" t="n">
+        <v>103.4852550359599</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-8.022269365892043</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100.6999818994461</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-13.73851486262354</v>
+      </c>
+      <c r="D11" t="n">
+        <v>102.1340949701379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>41</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.37531190089863</v>
+      </c>
+      <c r="D12" t="n">
+        <v>98.35880905888374</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-13.06639601860708</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88.20322465324131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-18.54045613929808</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88.05423767033945</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-19.76713168991031</v>
+      </c>
+      <c r="D15" t="n">
+        <v>82.72652211958453</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-22.16078803734158</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88.07049222474228</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>29</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-23.43021416621824</v>
+      </c>
+      <c r="D17" t="n">
+        <v>82.37526933365656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-27.75122215814358</v>
+      </c>
+      <c r="D18" t="n">
+        <v>79.81525749741007</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-29.14336523117104</v>
+      </c>
+      <c r="D19" t="n">
+        <v>81.06601819640898</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-29.85243072476501</v>
+      </c>
+      <c r="D20" t="n">
+        <v>73.48846518251113</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-34.85491305673546</v>
+      </c>
+      <c r="D21" t="n">
+        <v>72.5479372664044</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-38.12154023283123</v>
+      </c>
+      <c r="D22" t="n">
+        <v>66.95374471411071</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-38.54094249405057</v>
+      </c>
+      <c r="D23" t="n">
+        <v>70.47766657876917</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-39.84405904504189</v>
+      </c>
+      <c r="D24" t="n">
+        <v>67.3441254584487</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-45.87480527460922</v>
+      </c>
+      <c r="D25" t="n">
+        <v>67.06748153924471</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-49.69373498513114</v>
+      </c>
+      <c r="D26" t="n">
+        <v>58.06309909536284</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09886GDFD_po_data.xlsx
+++ b/po_analysis_by_asin/B09886GDFD_po_data.xlsx
@@ -669,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,16 +688,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -706,12 +696,6 @@
       <c r="B2" t="n">
         <v>75</v>
       </c>
-      <c r="C2" t="n">
-        <v>18.53915838484487</v>
-      </c>
-      <c r="D2" t="n">
-        <v>125.6161286935401</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -720,12 +704,6 @@
       <c r="B3" t="n">
         <v>72</v>
       </c>
-      <c r="C3" t="n">
-        <v>19.15340699463327</v>
-      </c>
-      <c r="D3" t="n">
-        <v>126.1263590624558</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -734,12 +712,6 @@
       <c r="B4" t="n">
         <v>70</v>
       </c>
-      <c r="C4" t="n">
-        <v>10.69650391419025</v>
-      </c>
-      <c r="D4" t="n">
-        <v>121.5921010968618</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -748,12 +720,6 @@
       <c r="B5" t="n">
         <v>67</v>
       </c>
-      <c r="C5" t="n">
-        <v>14.86204936539071</v>
-      </c>
-      <c r="D5" t="n">
-        <v>118.2570661350112</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -762,12 +728,6 @@
       <c r="B6" t="n">
         <v>65</v>
       </c>
-      <c r="C6" t="n">
-        <v>13.54290183543577</v>
-      </c>
-      <c r="D6" t="n">
-        <v>117.0573709841987</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -776,12 +736,6 @@
       <c r="B7" t="n">
         <v>54</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.3029472457527591</v>
-      </c>
-      <c r="D7" t="n">
-        <v>110.2565685592869</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -790,12 +744,6 @@
       <c r="B8" t="n">
         <v>52</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.242065527296114</v>
-      </c>
-      <c r="D8" t="n">
-        <v>106.3178573921102</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -804,12 +752,6 @@
       <c r="B9" t="n">
         <v>49</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.925939242430101</v>
-      </c>
-      <c r="D9" t="n">
-        <v>103.4852550359599</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -818,12 +760,6 @@
       <c r="B10" t="n">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
-        <v>-8.022269365892043</v>
-      </c>
-      <c r="D10" t="n">
-        <v>100.6999818994461</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -832,12 +768,6 @@
       <c r="B11" t="n">
         <v>44</v>
       </c>
-      <c r="C11" t="n">
-        <v>-13.73851486262354</v>
-      </c>
-      <c r="D11" t="n">
-        <v>102.1340949701379</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -846,12 +776,6 @@
       <c r="B12" t="n">
         <v>41</v>
       </c>
-      <c r="C12" t="n">
-        <v>-14.37531190089863</v>
-      </c>
-      <c r="D12" t="n">
-        <v>98.35880905888374</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -860,12 +784,6 @@
       <c r="B13" t="n">
         <v>39</v>
       </c>
-      <c r="C13" t="n">
-        <v>-13.06639601860708</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88.20322465324131</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -874,12 +792,6 @@
       <c r="B14" t="n">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
-        <v>-18.54045613929808</v>
-      </c>
-      <c r="D14" t="n">
-        <v>88.05423767033945</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -888,12 +800,6 @@
       <c r="B15" t="n">
         <v>34</v>
       </c>
-      <c r="C15" t="n">
-        <v>-19.76713168991031</v>
-      </c>
-      <c r="D15" t="n">
-        <v>82.72652211958453</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -902,12 +808,6 @@
       <c r="B16" t="n">
         <v>31</v>
       </c>
-      <c r="C16" t="n">
-        <v>-22.16078803734158</v>
-      </c>
-      <c r="D16" t="n">
-        <v>88.07049222474228</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -916,12 +816,6 @@
       <c r="B17" t="n">
         <v>29</v>
       </c>
-      <c r="C17" t="n">
-        <v>-23.43021416621824</v>
-      </c>
-      <c r="D17" t="n">
-        <v>82.37526933365656</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -930,12 +824,6 @@
       <c r="B18" t="n">
         <v>26</v>
       </c>
-      <c r="C18" t="n">
-        <v>-27.75122215814358</v>
-      </c>
-      <c r="D18" t="n">
-        <v>79.81525749741007</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -944,12 +832,6 @@
       <c r="B19" t="n">
         <v>23</v>
       </c>
-      <c r="C19" t="n">
-        <v>-29.14336523117104</v>
-      </c>
-      <c r="D19" t="n">
-        <v>81.06601819640898</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -958,12 +840,6 @@
       <c r="B20" t="n">
         <v>21</v>
       </c>
-      <c r="C20" t="n">
-        <v>-29.85243072476501</v>
-      </c>
-      <c r="D20" t="n">
-        <v>73.48846518251113</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -972,12 +848,6 @@
       <c r="B21" t="n">
         <v>18</v>
       </c>
-      <c r="C21" t="n">
-        <v>-34.85491305673546</v>
-      </c>
-      <c r="D21" t="n">
-        <v>72.5479372664044</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -986,12 +856,6 @@
       <c r="B22" t="n">
         <v>16</v>
       </c>
-      <c r="C22" t="n">
-        <v>-38.12154023283123</v>
-      </c>
-      <c r="D22" t="n">
-        <v>66.95374471411071</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1000,12 +864,6 @@
       <c r="B23" t="n">
         <v>13</v>
       </c>
-      <c r="C23" t="n">
-        <v>-38.54094249405057</v>
-      </c>
-      <c r="D23" t="n">
-        <v>70.47766657876917</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1014,12 +872,6 @@
       <c r="B24" t="n">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>-39.84405904504189</v>
-      </c>
-      <c r="D24" t="n">
-        <v>67.3441254584487</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1028,12 +880,6 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" t="n">
-        <v>-45.87480527460922</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67.06748153924471</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1041,12 +887,6 @@
       </c>
       <c r="B26" t="n">
         <v>5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-49.69373498513114</v>
-      </c>
-      <c r="D26" t="n">
-        <v>58.06309909536284</v>
       </c>
     </row>
   </sheetData>
